--- a/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
+++ b/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="272">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -804,27 +804,9 @@
     <t>SOAP</t>
   </si>
   <si>
-    <t>ns1:plz</t>
-  </si>
-  <si>
-    <t>ns1:ort</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>cityslicka</t>
-  </si>
-  <si>
-    <t>TeamLead</t>
-  </si>
-  <si>
     <t>Parameter24</t>
   </si>
   <si>
-    <t>&lt;TC_002=DivideResult&gt;</t>
-  </si>
-  <si>
     <t>Request_Method</t>
   </si>
   <si>
@@ -856,6 +838,9 @@
   </si>
   <si>
     <t>EmpId</t>
+  </si>
+  <si>
+    <t>Cust-Details-Case2</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1270,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CC6"/>
+  <dimension ref="A1:CC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -1380,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -1521,7 +1506,7 @@
         <v>54</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>55</v>
@@ -1622,7 +1607,7 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1630,24 +1615,10 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3">
         <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6">
-        <v>14005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1629,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IZ8"/>
+  <dimension ref="A1:IZ3"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -1666,7 +1637,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1730,16 +1701,16 @@
   <sheetData>
     <row r="1" spans="1:260" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1763,7 +1734,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>7</v>
@@ -2512,28 +2483,28 @@
     </row>
     <row r="2" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>258</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O2" s="2">
         <v>123</v>
@@ -2541,51 +2512,31 @@
     </row>
     <row r="3" spans="1:260" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>258</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O3" s="2">
         <v>3769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:260" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
+++ b/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t>Cust-Details-Case2</t>
+  </si>
+  <si>
+    <t>Cust-Details-Case3</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1273,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CC3"/>
+  <dimension ref="A1:CC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -1621,6 +1624,11 @@
         <v>200</v>
       </c>
     </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1629,7 +1637,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IZ3"/>
+  <dimension ref="A1:IZ4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -2539,6 +2547,35 @@
         <v>3769</v>
       </c>
     </row>
+    <row r="4" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
+++ b/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="274">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>Cust-Details-Case3</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -1628,6 +1631,9 @@
       <c r="A4" t="s">
         <v>272</v>
       </c>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
+++ b/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="275">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -847,6 +847,9 @@
   </si>
   <si>
     <t>200</t>
+  </si>
+  <si>
+    <t>Cust-Details-Case4</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1279,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CC4"/>
+  <dimension ref="A1:CC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -1635,6 +1638,14 @@
         <v>273</v>
       </c>
     </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1643,7 +1654,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IZ4"/>
+  <dimension ref="A1:IZ5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -2582,6 +2593,35 @@
         <v>2445</v>
       </c>
     </row>
+    <row r="5" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
+++ b/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="275">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -846,10 +846,10 @@
     <t>Cust-Details-Case3</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>Cust-Details-Case4</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1619,7 @@
         <v>267</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
@@ -1627,23 +1627,23 @@
         <v>271</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>272</v>
       </c>
-      <c r="B4" t="s">
-        <v>273</v>
+      <c r="B4">
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
         <v>274</v>
-      </c>
-      <c r="B5" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>264</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>268</v>

--- a/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
+++ b/Report/SpectrumAPIFrameWorkV3/SpectrumAPIFrameWork/Data/Execution_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="276">
   <si>
     <t>TestCase_ID</t>
   </si>
@@ -849,7 +849,10 @@
     <t>Cust-Details-Case4</t>
   </si>
   <si>
-    <t>500</t>
+    <t>Cust-Details-Case5</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1282,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CC5"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -1619,7 +1622,7 @@
         <v>267</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
@@ -1627,7 +1630,7 @@
         <v>271</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
@@ -1635,15 +1638,23 @@
         <v>272</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>273</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>274</v>
+      </c>
+      <c r="B6" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1665,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:IZ5"/>
+  <dimension ref="A1:IZ6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -2622,6 +2633,35 @@
         <v>2446</v>
       </c>
     </row>
+    <row r="6" spans="1:260" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
